--- a/SourceCode/2023/March2023/week2/ArithmeticOperations_ExcelInput/Data/Input/input.xlsx
+++ b/SourceCode/2023/March2023/week2/ArithmeticOperations_ExcelInput/Data/Input/input.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uipath\GitSpace\RPA-Developer-in-30-Days\SourceCode\2023\March2023\week2\ArithmeticOperations_ExcelInput\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kapil\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2023\March2023\week2\ArithmeticOperations_ExcelInput\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A11C31-7CED-4AB9-8C9B-8B9F648C8DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F9437-F4AC-42F5-AFF6-4F07E8853E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FirstNumber</t>
   </si>
@@ -55,12 +64,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,103 +407,84 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
